--- a/data/trans_bre/Hacinamiento_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 4,46</t>
+          <t>-1,42; 4,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,92</t>
+          <t>0,33; 5,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,2</t>
+          <t>0,1; 4,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,4</t>
+          <t>-2,48; 1,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,11; 249,45</t>
+          <t>-38,51; 262,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 512,51</t>
+          <t>5,88; 573,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 485,95</t>
+          <t>-11,35; 423,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-68,64; 88,88</t>
+          <t>-68,93; 114,58</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,92</t>
+          <t>0,34; 5,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,69</t>
+          <t>0,74; 6,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,29</t>
+          <t>-2,12; 3,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,62</t>
+          <t>-1,55; 1,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 538,75</t>
+          <t>-7,07; 696,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,28; 435,42</t>
+          <t>13,97; 464,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,3; 193,04</t>
+          <t>-47,23; 163,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-72,99; 378,96</t>
+          <t>-67,92; 367,96</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 6,55</t>
+          <t>-2,57; 6,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,09</t>
+          <t>-2,75; 3,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 1,59</t>
+          <t>-4,9; 1,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 3,76</t>
+          <t>-1,84; 3,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,15; 174,91</t>
+          <t>-49,43; 152,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-44,84; 94,59</t>
+          <t>-45,47; 90,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-86,2; 58,48</t>
+          <t>-83,73; 46,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-75,98; 694,7</t>
+          <t>-83,97; 521,43</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 3,42</t>
+          <t>-0,95; 3,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 4,55</t>
+          <t>-0,62; 4,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,25</t>
+          <t>-0,76; 3,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,75</t>
+          <t>-2,1; 0,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 93,19</t>
+          <t>-19,22; 89,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 90,41</t>
+          <t>-9,23; 86,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 100,65</t>
+          <t>-15,15; 99,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,58; 43,08</t>
+          <t>-70,76; 32,42</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,04</t>
+          <t>-5,5; 3,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 3,59</t>
+          <t>-2,5; 3,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 3,78</t>
+          <t>-1,53; 3,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,05</t>
+          <t>-1,62; 2,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-41,88; 40,1</t>
+          <t>-42,11; 45,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 72,41</t>
+          <t>-29,3; 63,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 87,33</t>
+          <t>-22,67; 85,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-40,06; 136,66</t>
+          <t>-40,78; 123,93</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 1,71</t>
+          <t>-4,79; 1,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 3,82</t>
+          <t>-1,18; 3,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,26; -0,4</t>
+          <t>-7,19; -0,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 4,45</t>
+          <t>-0,81; 4,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 39,98</t>
+          <t>-50,16; 38,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 226,99</t>
+          <t>-23,27; 220,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-73,81; -9,02</t>
+          <t>-71,69; -9,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,62; —</t>
+          <t>-53,78; —</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,28</t>
+          <t>0,06; 2,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,62</t>
+          <t>0,29; 2,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,23</t>
+          <t>-0,71; 1,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,22</t>
+          <t>-0,46; 1,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 53,93</t>
+          <t>0,18; 57,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,27; 60,8</t>
+          <t>5,29; 57,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 32,37</t>
+          <t>-15,07; 34,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 74,0</t>
+          <t>-19,03; 76,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Hacinamiento_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
